--- a/data_intermediate/Data_template_DJNY-2.xlsx
+++ b/data_intermediate/Data_template_DJNY-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Project info" sheetId="1" state="visible" r:id="rId2"/>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">If yes, how did you measure distance to seed source (e.g. to any single tree, to X number of trees, to unburned edge, by species, in field, with aerial imagery etc)</t>
   </si>
   <si>
-    <t xml:space="preserve">To any single tree of reproductive size. If not tree was visible, recorded NA.</t>
+    <t xml:space="preserve">To any single tree of reproductive size. If not tree was visible, recorded NA. DeasuredeterMmined with laser rangefinder in the field.</t>
   </si>
   <si>
     <t xml:space="preserve">To the best of your knowledge, was there a prior disturbance within the 50 years prior to the fire? What type of disturbance, when, and how many of the plots were in the affected area?</t>
@@ -139,6 +139,7 @@
   </si>
   <si>
     <t xml:space="preserve">These plots are additions by DJNY to the Welch collection (but not in the Welch database) that largely follow the same protocol. This includes control plots for many of the Welch plots that are not in this spreadsheet. Note that control plots are not paired with burned plots; they are clusters of plots in the nearest accessible comparable unburned forest to clusters of plots in the burned areas.
+*** There is potential for young ABCO and ABMA seedlings to be confused.
 I also have about 250 “control” plots (unburned or low-severity) from near the burned plots, for purposes of capturing pre-fire structure and composition. No regen data was collected at these plots. These data can be provided upon request.</t>
   </si>
   <si>
@@ -1103,10 +1104,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1279,7 +1280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="112.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1308,8 +1309,8 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2147,8 +2148,8 @@
   </sheetPr>
   <dimension ref="A1:AW107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2172,7 +2173,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.78"/>
